--- a/Raw source files/181_Notice Savings.xlsx
+++ b/Raw source files/181_Notice Savings.xlsx
@@ -744,7 +744,7 @@
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="45.9037551879883" customWidth="1"/>
     <col min="5" max="5" width="24.3498229980469" customWidth="1"/>
-    <col min="6" max="6" width="12.504771232605" customWidth="1"/>
+    <col min="6" max="6" width="12.5549020767212" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
